--- a/data/pca/factorExposure/factorExposure_2010-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-26.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004449572637465041</v>
+        <v>0.01715314353532279</v>
       </c>
       <c r="C2">
-        <v>-0.01654454620786254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.00103430045059582</v>
+      </c>
+      <c r="D2">
+        <v>-0.006671918887451413</v>
+      </c>
+      <c r="E2">
+        <v>4.717750967033701e-06</v>
+      </c>
+      <c r="F2">
+        <v>-0.009733336421726708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02970562819304612</v>
+        <v>0.09385243863429614</v>
       </c>
       <c r="C4">
-        <v>-0.1236525809095183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01595421066011595</v>
+      </c>
+      <c r="D4">
+        <v>-0.08240553981719197</v>
+      </c>
+      <c r="E4">
+        <v>0.02800379447576236</v>
+      </c>
+      <c r="F4">
+        <v>0.0305486435617615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03876063518401192</v>
+        <v>0.1566520628757007</v>
       </c>
       <c r="C6">
-        <v>-0.1074028737496278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02527670343363063</v>
+      </c>
+      <c r="D6">
+        <v>0.02369317326964608</v>
+      </c>
+      <c r="E6">
+        <v>0.008503417616816967</v>
+      </c>
+      <c r="F6">
+        <v>0.0467891566363066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01007507263806694</v>
+        <v>0.06035250066775825</v>
       </c>
       <c r="C7">
-        <v>-0.07279699045536192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0007654827687022266</v>
+      </c>
+      <c r="D7">
+        <v>-0.05193481851063448</v>
+      </c>
+      <c r="E7">
+        <v>0.01029966368921391</v>
+      </c>
+      <c r="F7">
+        <v>0.04242530074583504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002706730622852941</v>
+        <v>0.05828933457408759</v>
       </c>
       <c r="C8">
-        <v>-0.05970915739328281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01330494144699997</v>
+      </c>
+      <c r="D8">
+        <v>-0.03184766287802756</v>
+      </c>
+      <c r="E8">
+        <v>0.01705264156182343</v>
+      </c>
+      <c r="F8">
+        <v>-0.02804220572701252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0253195022009916</v>
+        <v>0.07151664630609257</v>
       </c>
       <c r="C9">
-        <v>-0.09772734866943401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01180246360255894</v>
+      </c>
+      <c r="D9">
+        <v>-0.08452821115084035</v>
+      </c>
+      <c r="E9">
+        <v>0.02282736743796137</v>
+      </c>
+      <c r="F9">
+        <v>0.04620382495818582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.007463157089982878</v>
+        <v>0.09423845631086453</v>
       </c>
       <c r="C10">
-        <v>-0.03104596066791779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01857950133124926</v>
+      </c>
+      <c r="D10">
+        <v>0.1707825792235105</v>
+      </c>
+      <c r="E10">
+        <v>-0.03744234175916245</v>
+      </c>
+      <c r="F10">
+        <v>-0.05715832166847041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02882513522427947</v>
+        <v>0.08785904543529136</v>
       </c>
       <c r="C11">
-        <v>-0.1073241212234056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01147822875621385</v>
+      </c>
+      <c r="D11">
+        <v>-0.1166247820775386</v>
+      </c>
+      <c r="E11">
+        <v>0.04732167506951827</v>
+      </c>
+      <c r="F11">
+        <v>0.01986908546766732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0259138871586445</v>
+        <v>0.09246576020704987</v>
       </c>
       <c r="C12">
-        <v>-0.1159989840708527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008969290900653572</v>
+      </c>
+      <c r="D12">
+        <v>-0.1291775665726033</v>
+      </c>
+      <c r="E12">
+        <v>0.04696063987873326</v>
+      </c>
+      <c r="F12">
+        <v>0.02319934505307095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008167569803879064</v>
+        <v>0.04268282861526802</v>
       </c>
       <c r="C13">
-        <v>-0.03787200912662865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003851258990167173</v>
+      </c>
+      <c r="D13">
+        <v>-0.04934211823792353</v>
+      </c>
+      <c r="E13">
+        <v>-0.01064649756559275</v>
+      </c>
+      <c r="F13">
+        <v>0.002250862611666725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0149934020119939</v>
+        <v>0.02214587166890912</v>
       </c>
       <c r="C14">
-        <v>-0.02598270922945885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01410840329944047</v>
+      </c>
+      <c r="D14">
+        <v>-0.03363489681044658</v>
+      </c>
+      <c r="E14">
+        <v>0.01688014061329237</v>
+      </c>
+      <c r="F14">
+        <v>0.01314794875451352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01168034629221076</v>
+        <v>0.0315130233137797</v>
       </c>
       <c r="C15">
-        <v>-0.02675025918747429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.00520089067205916</v>
+      </c>
+      <c r="D15">
+        <v>-0.04504267371082869</v>
+      </c>
+      <c r="E15">
+        <v>0.006648259147504792</v>
+      </c>
+      <c r="F15">
+        <v>0.02159464401200487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01705123653420607</v>
+        <v>0.07310826811491035</v>
       </c>
       <c r="C16">
-        <v>-0.1134793865158647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002420205398770802</v>
+      </c>
+      <c r="D16">
+        <v>-0.1260714794871665</v>
+      </c>
+      <c r="E16">
+        <v>0.06221319435242673</v>
+      </c>
+      <c r="F16">
+        <v>0.02275497248469379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02707023331736349</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003390617023031201</v>
+      </c>
+      <c r="D18">
+        <v>-0.02028795737969959</v>
+      </c>
+      <c r="E18">
+        <v>-0.006710633450191516</v>
+      </c>
+      <c r="F18">
+        <v>-0.008752938872930237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0115628290695946</v>
+        <v>0.06014070492587428</v>
       </c>
       <c r="C20">
-        <v>-0.06866743981212357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0007475122358549135</v>
+      </c>
+      <c r="D20">
+        <v>-0.07717192541171009</v>
+      </c>
+      <c r="E20">
+        <v>0.05567828877756518</v>
+      </c>
+      <c r="F20">
+        <v>0.02102576952993674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01029338866194563</v>
+        <v>0.03901035092060456</v>
       </c>
       <c r="C21">
-        <v>-0.02057570510906457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006494731008083403</v>
+      </c>
+      <c r="D21">
+        <v>-0.03695428321091618</v>
+      </c>
+      <c r="E21">
+        <v>-0.006260484255711385</v>
+      </c>
+      <c r="F21">
+        <v>-0.02776569029956131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003546748727083169</v>
+        <v>0.0450343891800101</v>
       </c>
       <c r="C22">
-        <v>-0.03213171490893168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.000851144795624837</v>
+      </c>
+      <c r="D22">
+        <v>-0.002061167207147794</v>
+      </c>
+      <c r="E22">
+        <v>0.02890171917955517</v>
+      </c>
+      <c r="F22">
+        <v>-0.03249900511419989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003534965342160976</v>
+        <v>0.04501934268533547</v>
       </c>
       <c r="C23">
-        <v>-0.03206063723725326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0008469194448105867</v>
+      </c>
+      <c r="D23">
+        <v>-0.002066097662690239</v>
+      </c>
+      <c r="E23">
+        <v>0.02910367718626383</v>
+      </c>
+      <c r="F23">
+        <v>-0.03246311774835964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01858905081125242</v>
+        <v>0.07990898642576801</v>
       </c>
       <c r="C24">
-        <v>-0.1119545089370908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.00314163819276163</v>
+      </c>
+      <c r="D24">
+        <v>-0.120158022369243</v>
+      </c>
+      <c r="E24">
+        <v>0.05042805474279211</v>
+      </c>
+      <c r="F24">
+        <v>0.02362468080834685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02382283705714226</v>
+        <v>0.08514869370932709</v>
       </c>
       <c r="C25">
-        <v>-0.1174822944308777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005286104347629205</v>
+      </c>
+      <c r="D25">
+        <v>-0.1091140498246702</v>
+      </c>
+      <c r="E25">
+        <v>0.03335740638888572</v>
+      </c>
+      <c r="F25">
+        <v>0.02489674498074642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02247256810405143</v>
+        <v>0.05634538882648273</v>
       </c>
       <c r="C26">
-        <v>-0.04809085270293665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01457974371278095</v>
+      </c>
+      <c r="D26">
+        <v>-0.04193652090151331</v>
+      </c>
+      <c r="E26">
+        <v>0.02760574070509374</v>
+      </c>
+      <c r="F26">
+        <v>-0.01157914255987613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.002003837539870841</v>
+        <v>0.1411879769486113</v>
       </c>
       <c r="C28">
-        <v>-0.02466735170831091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01791348071539836</v>
+      </c>
+      <c r="D28">
+        <v>0.2642472271000898</v>
+      </c>
+      <c r="E28">
+        <v>-0.06974603922520205</v>
+      </c>
+      <c r="F28">
+        <v>0.006499034191280049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01399420960685845</v>
+        <v>0.02648844487124905</v>
       </c>
       <c r="C29">
-        <v>-0.02945841092521258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008204444034054091</v>
+      </c>
+      <c r="D29">
+        <v>-0.03330825724438043</v>
+      </c>
+      <c r="E29">
+        <v>0.01094525514508177</v>
+      </c>
+      <c r="F29">
+        <v>-0.01191746486262873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01840344732090949</v>
+        <v>0.0619404219378597</v>
       </c>
       <c r="C30">
-        <v>-0.1251759180875319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004655940053057814</v>
+      </c>
+      <c r="D30">
+        <v>-0.08686315172998159</v>
+      </c>
+      <c r="E30">
+        <v>0.02021352825217431</v>
+      </c>
+      <c r="F30">
+        <v>0.08107556158743758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02300519593243215</v>
+        <v>0.04936042566989775</v>
       </c>
       <c r="C31">
-        <v>-0.03546251888040169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01533512153738039</v>
+      </c>
+      <c r="D31">
+        <v>-0.02531567724747507</v>
+      </c>
+      <c r="E31">
+        <v>0.02735012829802374</v>
+      </c>
+      <c r="F31">
+        <v>-0.002962139841858966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009650419986615968</v>
+        <v>0.04900340598083489</v>
       </c>
       <c r="C32">
-        <v>-0.05914912074793558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001263576602212135</v>
+      </c>
+      <c r="D32">
+        <v>-0.0364386296927464</v>
+      </c>
+      <c r="E32">
+        <v>0.03090005467756433</v>
+      </c>
+      <c r="F32">
+        <v>-0.000297681090849436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02509891349729972</v>
+        <v>0.08984619801709542</v>
       </c>
       <c r="C33">
-        <v>-0.1157447928891395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008757803321499221</v>
+      </c>
+      <c r="D33">
+        <v>-0.09752954193887738</v>
+      </c>
+      <c r="E33">
+        <v>0.0443599405871361</v>
+      </c>
+      <c r="F33">
+        <v>0.03285718218844827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02676757795430974</v>
+        <v>0.06812558234460675</v>
       </c>
       <c r="C34">
-        <v>-0.09776835363594857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01177573163102463</v>
+      </c>
+      <c r="D34">
+        <v>-0.1055457522362557</v>
+      </c>
+      <c r="E34">
+        <v>0.0348705975536402</v>
+      </c>
+      <c r="F34">
+        <v>0.03184764974230576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002835520522368519</v>
+        <v>0.02427791830359019</v>
       </c>
       <c r="C35">
-        <v>-0.01322018987611472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00233676064430044</v>
+      </c>
+      <c r="D35">
+        <v>-0.01296875615520441</v>
+      </c>
+      <c r="E35">
+        <v>0.01166211638968746</v>
+      </c>
+      <c r="F35">
+        <v>0.0008468771576434694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01090793714003707</v>
+        <v>0.02541123143395838</v>
       </c>
       <c r="C36">
-        <v>-0.02921438605588677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007325319353047818</v>
+      </c>
+      <c r="D36">
+        <v>-0.0395787178405876</v>
+      </c>
+      <c r="E36">
+        <v>0.01533603417691905</v>
+      </c>
+      <c r="F36">
+        <v>0.01380425628207473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.000716055786649551</v>
+        <v>0.001523126282529502</v>
       </c>
       <c r="C38">
-        <v>-0.005337939842409426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002446708280383121</v>
+      </c>
+      <c r="D38">
+        <v>-0.0005258530688441002</v>
+      </c>
+      <c r="E38">
+        <v>0.00106661084033424</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006006830748730771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04178973449451632</v>
+        <v>0.1070126945387909</v>
       </c>
       <c r="C39">
-        <v>-0.1714828820511614</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01699757303773234</v>
+      </c>
+      <c r="D39">
+        <v>-0.1531145363875554</v>
+      </c>
+      <c r="E39">
+        <v>0.05943093637036525</v>
+      </c>
+      <c r="F39">
+        <v>0.02801201705179371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.007915865517482934</v>
+        <v>0.03958454270017919</v>
       </c>
       <c r="C40">
-        <v>-0.01387243117311371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007504164311786815</v>
+      </c>
+      <c r="D40">
+        <v>-0.03207900075564414</v>
+      </c>
+      <c r="E40">
+        <v>0.002634485011204735</v>
+      </c>
+      <c r="F40">
+        <v>-0.01817937716809694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01285710776696506</v>
+        <v>0.02648150981934774</v>
       </c>
       <c r="C41">
-        <v>-0.02142035781687938</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006591224106734673</v>
+      </c>
+      <c r="D41">
+        <v>-0.01133259250358313</v>
+      </c>
+      <c r="E41">
+        <v>0.01281155299757685</v>
+      </c>
+      <c r="F41">
+        <v>-0.006797526407318702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01174520679576958</v>
+        <v>0.0397539331901629</v>
       </c>
       <c r="C43">
-        <v>-0.02531465551629317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006818643281976681</v>
+      </c>
+      <c r="D43">
+        <v>-0.02059850609219832</v>
+      </c>
+      <c r="E43">
+        <v>0.02535386048903974</v>
+      </c>
+      <c r="F43">
+        <v>-0.01205831130060788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0339049572816194</v>
+        <v>0.07732732229924316</v>
       </c>
       <c r="C44">
-        <v>-0.1338094262054209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02111213627795075</v>
+      </c>
+      <c r="D44">
+        <v>-0.09790485166123244</v>
+      </c>
+      <c r="E44">
+        <v>0.06582093576762313</v>
+      </c>
+      <c r="F44">
+        <v>0.1504473114526924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005149890440014581</v>
+        <v>0.02379097394446816</v>
       </c>
       <c r="C46">
-        <v>-0.00930052037425535</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003728568398641556</v>
+      </c>
+      <c r="D46">
+        <v>-0.01304759304244201</v>
+      </c>
+      <c r="E46">
+        <v>0.02185308255776167</v>
+      </c>
+      <c r="F46">
+        <v>-0.003622821002059872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01231725811589481</v>
+        <v>0.05074253891223514</v>
       </c>
       <c r="C47">
-        <v>-0.04327734013953716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003609133812673537</v>
+      </c>
+      <c r="D47">
+        <v>-0.01267708691457367</v>
+      </c>
+      <c r="E47">
+        <v>0.02286501499576938</v>
+      </c>
+      <c r="F47">
+        <v>-0.03375493604227817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01205821648434229</v>
+        <v>0.04851740949412905</v>
       </c>
       <c r="C48">
-        <v>-0.04831427669934609</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002667124017219538</v>
+      </c>
+      <c r="D48">
+        <v>-0.0507439956438278</v>
+      </c>
+      <c r="E48">
+        <v>-0.00637344739615915</v>
+      </c>
+      <c r="F48">
+        <v>0.008325143657252862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03850181092405702</v>
+        <v>0.2022338121851633</v>
       </c>
       <c r="C49">
-        <v>-0.2045239563318249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01876117251014048</v>
+      </c>
+      <c r="D49">
+        <v>0.01243800825708013</v>
+      </c>
+      <c r="E49">
+        <v>0.03094904504219871</v>
+      </c>
+      <c r="F49">
+        <v>0.03878410983691447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01916640838619369</v>
+        <v>0.04951244512386103</v>
       </c>
       <c r="C50">
-        <v>-0.04278279400852112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01140250734844098</v>
+      </c>
+      <c r="D50">
+        <v>-0.02432967100632722</v>
+      </c>
+      <c r="E50">
+        <v>0.02978791587789155</v>
+      </c>
+      <c r="F50">
+        <v>0.00771998495780006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000592925441100971</v>
+        <v>0.001412916517744313</v>
       </c>
       <c r="C51">
-        <v>-0.004328450445911073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.000362311217747478</v>
+      </c>
+      <c r="D51">
+        <v>0.001599446298959959</v>
+      </c>
+      <c r="E51">
+        <v>-2.614200068305182e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0028441259009144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03157957553683298</v>
+        <v>0.146317203115086</v>
       </c>
       <c r="C52">
-        <v>-0.1448834282313175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01505490124963121</v>
+      </c>
+      <c r="D52">
+        <v>-0.04655961220790404</v>
+      </c>
+      <c r="E52">
+        <v>0.02103406620637511</v>
+      </c>
+      <c r="F52">
+        <v>0.04532198029275378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02909566047511373</v>
+        <v>0.1740745473369849</v>
       </c>
       <c r="C53">
-        <v>-0.1585273974862773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01826669519841015</v>
+      </c>
+      <c r="D53">
+        <v>-0.005629390431599074</v>
+      </c>
+      <c r="E53">
+        <v>0.03166116182762351</v>
+      </c>
+      <c r="F53">
+        <v>0.07678987431737412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0149326170005537</v>
+        <v>0.02122918517755624</v>
       </c>
       <c r="C54">
-        <v>-0.04936594032015992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01244517025570598</v>
+      </c>
+      <c r="D54">
+        <v>-0.03308534988211748</v>
+      </c>
+      <c r="E54">
+        <v>0.01632732176291221</v>
+      </c>
+      <c r="F54">
+        <v>-0.004505937290327278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0246593569086058</v>
+        <v>0.1143430744306031</v>
       </c>
       <c r="C55">
-        <v>-0.08823234012607385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01628701846190284</v>
+      </c>
+      <c r="D55">
+        <v>-0.009669134756535948</v>
+      </c>
+      <c r="E55">
+        <v>0.02799275773634752</v>
+      </c>
+      <c r="F55">
+        <v>0.0492678615099081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03202698833223369</v>
+        <v>0.1784616222040307</v>
       </c>
       <c r="C56">
-        <v>-0.1612798739889874</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01562638271710173</v>
+      </c>
+      <c r="D56">
+        <v>-0.001947813951170693</v>
+      </c>
+      <c r="E56">
+        <v>0.03712101413502165</v>
+      </c>
+      <c r="F56">
+        <v>0.0560533872878813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01133439321214759</v>
+        <v>0.04643895177903103</v>
       </c>
       <c r="C58">
-        <v>-0.04621412829970005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.00126427307387688</v>
+      </c>
+      <c r="D58">
+        <v>-0.06731346273779609</v>
+      </c>
+      <c r="E58">
+        <v>0.02755522703821546</v>
+      </c>
+      <c r="F58">
+        <v>-0.03974451896858841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01120262597565777</v>
+        <v>0.1698675933933839</v>
       </c>
       <c r="C59">
-        <v>-0.08162077569674503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01866691368339413</v>
+      </c>
+      <c r="D59">
+        <v>0.221436364090953</v>
+      </c>
+      <c r="E59">
+        <v>-0.04561119689601358</v>
+      </c>
+      <c r="F59">
+        <v>-0.03314099749863299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03044002160559889</v>
+        <v>0.2339714715518351</v>
       </c>
       <c r="C60">
-        <v>-0.2767735775838484</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002926782297025545</v>
+      </c>
+      <c r="D60">
+        <v>-0.03957616638942281</v>
+      </c>
+      <c r="E60">
+        <v>0.01133655687381089</v>
+      </c>
+      <c r="F60">
+        <v>-0.0008333872387763171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02980117737683091</v>
+        <v>0.08304272351043493</v>
       </c>
       <c r="C61">
-        <v>-0.131528690434475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01279265496517878</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162240283666841</v>
+      </c>
+      <c r="E61">
+        <v>0.03969787790412971</v>
+      </c>
+      <c r="F61">
+        <v>0.01214515758673808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03618884233733229</v>
+        <v>0.1703338478892232</v>
       </c>
       <c r="C62">
-        <v>-0.1687641174089961</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01932833315783345</v>
+      </c>
+      <c r="D62">
+        <v>-0.007339403242394621</v>
+      </c>
+      <c r="E62">
+        <v>0.03600012307114548</v>
+      </c>
+      <c r="F62">
+        <v>0.03793238656583973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01271843560462231</v>
+        <v>0.04332052514030391</v>
       </c>
       <c r="C63">
-        <v>-0.05549371151849553</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002425855392942335</v>
+      </c>
+      <c r="D63">
+        <v>-0.05806476637147599</v>
+      </c>
+      <c r="E63">
+        <v>0.02011626859393285</v>
+      </c>
+      <c r="F63">
+        <v>0.004177121446930146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02440947613416055</v>
+        <v>0.1099895174505709</v>
       </c>
       <c r="C64">
-        <v>-0.09849349666911529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01173895511152329</v>
+      </c>
+      <c r="D64">
+        <v>-0.04175519470278118</v>
+      </c>
+      <c r="E64">
+        <v>0.02228129581022248</v>
+      </c>
+      <c r="F64">
+        <v>0.02579611409349149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0405159025490591</v>
+        <v>0.1464236307201721</v>
       </c>
       <c r="C65">
-        <v>-0.107375000221362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03199915201936376</v>
+      </c>
+      <c r="D65">
+        <v>0.041834164515005</v>
+      </c>
+      <c r="E65">
+        <v>0.002713798415241431</v>
+      </c>
+      <c r="F65">
+        <v>0.03835403196415511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03951231327122753</v>
+        <v>0.1277905070116729</v>
       </c>
       <c r="C66">
-        <v>-0.2042801888992319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01498059118598559</v>
+      </c>
+      <c r="D66">
+        <v>-0.1416201815662015</v>
+      </c>
+      <c r="E66">
+        <v>0.06777726532453984</v>
+      </c>
+      <c r="F66">
+        <v>0.03122500718582647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01589149810033466</v>
+        <v>0.06311513056253312</v>
       </c>
       <c r="C67">
-        <v>-0.06698401129734653</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003285936995672676</v>
+      </c>
+      <c r="D67">
+        <v>-0.05509540977361697</v>
+      </c>
+      <c r="E67">
+        <v>0.0183680024087948</v>
+      </c>
+      <c r="F67">
+        <v>-0.03219926265561297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01306073737737729</v>
+        <v>0.1161014674966853</v>
       </c>
       <c r="C68">
-        <v>-0.0251795376068813</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02787311151503935</v>
+      </c>
+      <c r="D68">
+        <v>0.2595356932877126</v>
+      </c>
+      <c r="E68">
+        <v>-0.08753886050507735</v>
+      </c>
+      <c r="F68">
+        <v>0.004356892931523976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.006819729851371007</v>
+        <v>0.03945757217840707</v>
       </c>
       <c r="C69">
-        <v>-0.03516983088837349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001241498781266382</v>
+      </c>
+      <c r="D69">
+        <v>-0.00749467161812167</v>
+      </c>
+      <c r="E69">
+        <v>0.02331675041884719</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006870310538783196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002221607792356434</v>
+        <v>0.06323292389161131</v>
       </c>
       <c r="C70">
-        <v>-0.03581526941565658</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02848163563301767</v>
+      </c>
+      <c r="D70">
+        <v>-0.02772806379722943</v>
+      </c>
+      <c r="E70">
+        <v>-0.04246915327086967</v>
+      </c>
+      <c r="F70">
+        <v>-0.1882935627836559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.016497003459639</v>
+        <v>0.1352204714317758</v>
       </c>
       <c r="C71">
-        <v>-0.02891430175850702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03270218267914504</v>
+      </c>
+      <c r="D71">
+        <v>0.2735708702059061</v>
+      </c>
+      <c r="E71">
+        <v>-0.0973627451537437</v>
+      </c>
+      <c r="F71">
+        <v>0.01074190605688391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03648129046311323</v>
+        <v>0.141126337623907</v>
       </c>
       <c r="C72">
-        <v>-0.1161916635878243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02560704772540785</v>
+      </c>
+      <c r="D72">
+        <v>-0.001155478962618285</v>
+      </c>
+      <c r="E72">
+        <v>0.04036887321135064</v>
+      </c>
+      <c r="F72">
+        <v>0.03673277012849084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03602746473537953</v>
+        <v>0.2010555501011056</v>
       </c>
       <c r="C73">
-        <v>-0.2098298085962544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01293866939826004</v>
+      </c>
+      <c r="D73">
+        <v>-0.01365576654367735</v>
+      </c>
+      <c r="E73">
+        <v>0.06415542735337694</v>
+      </c>
+      <c r="F73">
+        <v>0.04003796194835996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02001269692583436</v>
+        <v>0.0948310374835476</v>
       </c>
       <c r="C74">
-        <v>-0.1169670451902564</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01303876945599158</v>
+      </c>
+      <c r="D74">
+        <v>-0.01810986845371798</v>
+      </c>
+      <c r="E74">
+        <v>0.04476199298108727</v>
+      </c>
+      <c r="F74">
+        <v>0.05796778289255972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04246423295536493</v>
+        <v>0.1290321149163197</v>
       </c>
       <c r="C75">
-        <v>-0.1345896967652045</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02757897200949592</v>
+      </c>
+      <c r="D75">
+        <v>-0.03012647891722563</v>
+      </c>
+      <c r="E75">
+        <v>0.05934357255356362</v>
+      </c>
+      <c r="F75">
+        <v>0.0205512825572108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004616574849700711</v>
+        <v>0.001362042705364512</v>
       </c>
       <c r="C76">
-        <v>-0.005159137914765271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003555925574398543</v>
+      </c>
+      <c r="D76">
+        <v>0.000947252397347156</v>
+      </c>
+      <c r="E76">
+        <v>0.0004411513147987383</v>
+      </c>
+      <c r="F76">
+        <v>0.001922981765251801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02271175315689705</v>
+        <v>0.08091256861440196</v>
       </c>
       <c r="C77">
-        <v>-0.1071722450507273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008588506478563357</v>
+      </c>
+      <c r="D77">
+        <v>-0.1182203691000748</v>
+      </c>
+      <c r="E77">
+        <v>0.04097161977031551</v>
+      </c>
+      <c r="F77">
+        <v>0.02706482900364373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05437998918563011</v>
+        <v>0.1015557692035787</v>
       </c>
       <c r="C78">
-        <v>-0.1187428484863801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03977264282076045</v>
+      </c>
+      <c r="D78">
+        <v>-0.1162457111119211</v>
+      </c>
+      <c r="E78">
+        <v>0.07893923480068886</v>
+      </c>
+      <c r="F78">
+        <v>0.04516934110870961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03588783480515484</v>
+        <v>0.1647154288041839</v>
       </c>
       <c r="C79">
-        <v>-0.1461381261135253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02175623868418386</v>
+      </c>
+      <c r="D79">
+        <v>-0.01672476748018248</v>
+      </c>
+      <c r="E79">
+        <v>0.04778464550475527</v>
+      </c>
+      <c r="F79">
+        <v>0.01519011259988851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.006694848186852689</v>
+        <v>0.08150071319592715</v>
       </c>
       <c r="C80">
-        <v>-0.09744874883286957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0003962684832892712</v>
+      </c>
+      <c r="D80">
+        <v>-0.05687736388159428</v>
+      </c>
+      <c r="E80">
+        <v>0.03590741334450846</v>
+      </c>
+      <c r="F80">
+        <v>-0.02549956669476485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04265734815240996</v>
+        <v>0.1230159807871212</v>
       </c>
       <c r="C81">
-        <v>-0.15284078477136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0314145387178147</v>
+      </c>
+      <c r="D81">
+        <v>-0.01567165519534077</v>
+      </c>
+      <c r="E81">
+        <v>0.05918220019349073</v>
+      </c>
+      <c r="F81">
+        <v>0.01886496408410929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03497238989552228</v>
+        <v>0.1654117594967195</v>
       </c>
       <c r="C82">
-        <v>-0.1720953657035881</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02397632218424802</v>
+      </c>
+      <c r="D82">
+        <v>-0.005162201869181475</v>
+      </c>
+      <c r="E82">
+        <v>0.02849216490598092</v>
+      </c>
+      <c r="F82">
+        <v>0.08145963953340005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0177825215366938</v>
+        <v>0.06148434580859392</v>
       </c>
       <c r="C83">
-        <v>-0.07742128389668246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003338489612704952</v>
+      </c>
+      <c r="D83">
+        <v>-0.04983520200327921</v>
+      </c>
+      <c r="E83">
+        <v>0.005897348263219762</v>
+      </c>
+      <c r="F83">
+        <v>-0.03261209442558714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02194849891092296</v>
+        <v>0.05831219837228103</v>
       </c>
       <c r="C84">
-        <v>-0.07621390930583451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01099417819663039</v>
+      </c>
+      <c r="D84">
+        <v>-0.06585897775620789</v>
+      </c>
+      <c r="E84">
+        <v>0.007072299284806132</v>
+      </c>
+      <c r="F84">
+        <v>0.005846640215502274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03724799527361372</v>
+        <v>0.1380261842884386</v>
       </c>
       <c r="C85">
-        <v>-0.1202627606238057</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02737974079350911</v>
+      </c>
+      <c r="D85">
+        <v>-0.01066109990781377</v>
+      </c>
+      <c r="E85">
+        <v>0.03972410572932021</v>
+      </c>
+      <c r="F85">
+        <v>0.04811531242598165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0120684131484211</v>
+        <v>0.09636970418196614</v>
       </c>
       <c r="C86">
-        <v>-0.1152731316190045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006599154618672776</v>
+      </c>
+      <c r="D86">
+        <v>-0.04018853234249081</v>
+      </c>
+      <c r="E86">
+        <v>0.2123377355033545</v>
+      </c>
+      <c r="F86">
+        <v>-0.908146684451588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03991629348671191</v>
+        <v>0.09594355188034911</v>
       </c>
       <c r="C87">
-        <v>-0.111677731060601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02160784560574441</v>
+      </c>
+      <c r="D87">
+        <v>-0.09222279043370998</v>
+      </c>
+      <c r="E87">
+        <v>-0.05292010439331155</v>
+      </c>
+      <c r="F87">
+        <v>0.05092250166448199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01340100839922117</v>
+        <v>0.06102941001350172</v>
       </c>
       <c r="C88">
-        <v>-0.05792831919879889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002584204076708696</v>
+      </c>
+      <c r="D88">
+        <v>-0.05030070918084851</v>
+      </c>
+      <c r="E88">
+        <v>0.02517510714701693</v>
+      </c>
+      <c r="F88">
+        <v>0.01369827211333745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0004068773810819789</v>
+        <v>0.1332173601857731</v>
       </c>
       <c r="C89">
-        <v>-0.05019552173441764</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01008525584267844</v>
+      </c>
+      <c r="D89">
+        <v>0.251021192546924</v>
+      </c>
+      <c r="E89">
+        <v>-0.09071925634920656</v>
+      </c>
+      <c r="F89">
+        <v>-0.006464630681413476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01767439425292768</v>
+        <v>0.1477079905023288</v>
       </c>
       <c r="C90">
-        <v>-0.03244266094465119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02845627665993791</v>
+      </c>
+      <c r="D90">
+        <v>0.2662606929863665</v>
+      </c>
+      <c r="E90">
+        <v>-0.1117693824689214</v>
+      </c>
+      <c r="F90">
+        <v>-0.004109825839760438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02111125427205067</v>
+        <v>0.1196181091381096</v>
       </c>
       <c r="C91">
-        <v>-0.09265258839222207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01801324038464431</v>
+      </c>
+      <c r="D91">
+        <v>0.01136148991774763</v>
+      </c>
+      <c r="E91">
+        <v>0.05726950187809551</v>
+      </c>
+      <c r="F91">
+        <v>-0.0005908018384586683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0008076435922135817</v>
+        <v>0.1467045945783766</v>
       </c>
       <c r="C92">
-        <v>-0.04720825671714805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02059817517619884</v>
+      </c>
+      <c r="D92">
+        <v>0.2908817142106799</v>
+      </c>
+      <c r="E92">
+        <v>-0.1022855425938951</v>
+      </c>
+      <c r="F92">
+        <v>-0.01568817726587837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01108158134409479</v>
+        <v>0.1506998819296307</v>
       </c>
       <c r="C93">
-        <v>-0.03717300991375832</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02458516100829281</v>
+      </c>
+      <c r="D93">
+        <v>0.2663747297789047</v>
+      </c>
+      <c r="E93">
+        <v>-0.07840560644277253</v>
+      </c>
+      <c r="F93">
+        <v>0.00271120045774802</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04270445255860201</v>
+        <v>0.1320600319150961</v>
       </c>
       <c r="C94">
-        <v>-0.1588580383301951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02446371714510399</v>
+      </c>
+      <c r="D94">
+        <v>-0.04373889738830299</v>
+      </c>
+      <c r="E94">
+        <v>0.05884120971650436</v>
+      </c>
+      <c r="F94">
+        <v>0.03723942260894267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02940986438090517</v>
+        <v>0.1259254307155269</v>
       </c>
       <c r="C95">
-        <v>-0.1358321745110579</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004474227725396479</v>
+      </c>
+      <c r="D95">
+        <v>-0.09283504117129368</v>
+      </c>
+      <c r="E95">
+        <v>0.0467051966406281</v>
+      </c>
+      <c r="F95">
+        <v>-0.01104407880971384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.975550149401531</v>
+        <v>0.1035113750599551</v>
       </c>
       <c r="C96">
-        <v>-0.2010722737924809</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9881705328608804</v>
+      </c>
+      <c r="D96">
+        <v>0.03774106621427839</v>
+      </c>
+      <c r="E96">
+        <v>0.05654027202252542</v>
+      </c>
+      <c r="F96">
+        <v>0.04322491216778333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.007559842510256488</v>
+        <v>0.1908663505812632</v>
       </c>
       <c r="C97">
-        <v>-0.1756098659444038</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008660945224938828</v>
+      </c>
+      <c r="D97">
+        <v>0.01742528508145381</v>
+      </c>
+      <c r="E97">
+        <v>0.01494610532585869</v>
+      </c>
+      <c r="F97">
+        <v>-0.09317897477724971</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.0259589477434374</v>
+        <v>0.205994190489189</v>
       </c>
       <c r="C98">
-        <v>-0.1991366147338438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007426127801311792</v>
+      </c>
+      <c r="D98">
+        <v>-0.006999902103477295</v>
+      </c>
+      <c r="E98">
+        <v>-0.08641954475959597</v>
+      </c>
+      <c r="F98">
+        <v>-0.09452247437802891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.004150648639045287</v>
+        <v>0.05581375401288652</v>
       </c>
       <c r="C99">
-        <v>-0.05738598436209798</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004393692444142869</v>
+      </c>
+      <c r="D99">
+        <v>-0.03899232255692215</v>
+      </c>
+      <c r="E99">
+        <v>0.02368646759556468</v>
+      </c>
+      <c r="F99">
+        <v>0.0007210416115561843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005556940151764257</v>
+        <v>0.1269972149193927</v>
       </c>
       <c r="C100">
-        <v>-0.133299396506117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05246954792252415</v>
+      </c>
+      <c r="D100">
+        <v>-0.3492602435520437</v>
+      </c>
+      <c r="E100">
+        <v>-0.8868240648935841</v>
+      </c>
+      <c r="F100">
+        <v>-0.1373057221431965</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01402423563368392</v>
+        <v>0.02640822260428982</v>
       </c>
       <c r="C101">
-        <v>-0.02941721134088563</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008212384383902725</v>
+      </c>
+      <c r="D101">
+        <v>-0.03301393170331731</v>
+      </c>
+      <c r="E101">
+        <v>0.01038804812959278</v>
+      </c>
+      <c r="F101">
+        <v>-0.01315234435381437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
